--- a/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
+++ b/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
@@ -460,6 +460,9 @@
     <xf borderId="7" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="5" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,9 +492,6 @@
     </xf>
     <xf borderId="4" fillId="24" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="26" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -732,21 +732,21 @@
       </c>
       <c r="B1" s="2">
         <f>AVERAGE(B3:B12) * 10% + AVERAGE(B14:B17) * 20% + AVERAGE(B22:B26) * 10% + AVERAGE(B18) * 25% + AVERAGE(B19) * 35% + B20 * 5%</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4">
         <f> AVERAGE(D3:D7) * 8% + AVERAGE(D9:D12) * 16% + AVERAGE(D21:D28) * 5% + AVERAGE(D14:D17) * 6% + D18 * 25% + D19 * 45%</f>
-        <v>1.0948125</v>
+        <v>1.5385625</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6">
         <f> AVERAGE(F3:F7) * 15% + AVERAGE(F13:F18) * 30% + F8 * 25% + F9 * 25% + F10 * 5% + F11 * 5%</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
@@ -966,9 +966,8 @@
       <c r="A6" s="20">
         <v>4.0</v>
       </c>
-      <c r="B6" s="20">
-        <f>O1</f>
-        <v>0</v>
+      <c r="B6" s="21">
+        <v>100.0</v>
       </c>
       <c r="C6" s="22">
         <v>4.0</v>
@@ -1308,11 +1307,10 @@
       <c r="E13" s="22">
         <v>1.0</v>
       </c>
-      <c r="F13" s="23">
-        <f>O1</f>
-        <v>0</v>
+      <c r="F13" s="37">
+        <v>86.0</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="38" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="23">
@@ -1343,9 +1341,8 @@
       <c r="A14" s="20">
         <v>1.0</v>
       </c>
-      <c r="B14" s="20">
-        <f>O1</f>
-        <v>0</v>
+      <c r="B14" s="21">
+        <v>100.0</v>
       </c>
       <c r="C14" s="22">
         <v>1.0</v>
@@ -1357,11 +1354,10 @@
       <c r="E14" s="22">
         <v>2.0</v>
       </c>
-      <c r="F14" s="23">
-        <f>O1</f>
-        <v>0</v>
+      <c r="F14" s="37">
+        <v>94.0</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="38" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="23">
@@ -1410,7 +1406,7 @@
         <f>O1</f>
         <v>0</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="39" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="23">
@@ -1526,17 +1522,17 @@
       <c r="AA17" s="11"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="40">
         <f>O1</f>
         <v>0</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="42">
         <f>O1</f>
         <v>0</v>
       </c>
@@ -1570,17 +1566,17 @@
       <c r="AA18" s="11"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="43">
         <f>O1</f>
         <v>0</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="45">
         <f>O1</f>
         <v>0</v>
       </c>
@@ -1609,14 +1605,14 @@
       <c r="AA19" s="11"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="43">
         <f>O1</f>
         <v>0</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="25"/>
@@ -1645,14 +1641,14 @@
       <c r="AA20" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="22">
         <v>1.0</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="37">
         <v>84.17</v>
       </c>
       <c r="E21" s="11"/>
@@ -1690,7 +1686,7 @@
       <c r="C22" s="22">
         <v>2.0</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="37">
         <v>91.0</v>
       </c>
       <c r="E22" s="11"/>
@@ -1728,9 +1724,8 @@
       <c r="C23" s="22">
         <v>3.0</v>
       </c>
-      <c r="D23" s="23">
-        <f>O1</f>
-        <v>0</v>
+      <c r="D23" s="37">
+        <v>71.0</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -1798,9 +1793,8 @@
       <c r="A25" s="20">
         <v>4.0</v>
       </c>
-      <c r="B25" s="20">
-        <f>O1</f>
-        <v>0</v>
+      <c r="B25" s="21">
+        <v>100.0</v>
       </c>
       <c r="C25" s="22">
         <v>5.0</v>

--- a/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
+++ b/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="F1" s="6">
         <f> AVERAGE(F3:F7) * 15% + AVERAGE(F13:F18) * 30% + F8 * 25% + F9 * 25% + F10 * 5% + F11 * 5%</f>
-        <v>9</v>
+        <v>17.85</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
@@ -1402,9 +1402,8 @@
       <c r="E15" s="22">
         <v>3.0</v>
       </c>
-      <c r="F15" s="23">
-        <f>O1</f>
-        <v>0</v>
+      <c r="F15" s="37">
+        <v>98.0</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>13</v>
@@ -1451,9 +1450,8 @@
       <c r="E16" s="22">
         <v>4.0</v>
       </c>
-      <c r="F16" s="23">
-        <f>O1</f>
-        <v>0</v>
+      <c r="F16" s="37">
+        <v>79.0</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>

--- a/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
+++ b/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="D1" s="4">
         <f> AVERAGE(D3:D7) * 8% + AVERAGE(D9:D12) * 16% + AVERAGE(D21:D28) * 5% + AVERAGE(D14:D17) * 6% + D18 * 25% + D19 * 45%</f>
-        <v>1.5385625</v>
+        <v>2.0448125</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -1759,9 +1759,8 @@
       <c r="C24" s="22">
         <v>4.0</v>
       </c>
-      <c r="D24" s="23">
-        <f>O1</f>
-        <v>0</v>
+      <c r="D24" s="37">
+        <v>81.0</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>

--- a/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
+++ b/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
@@ -732,28 +732,28 @@
       </c>
       <c r="B1" s="2">
         <f>AVERAGE(B3:B12) * 10% + AVERAGE(B14:B17) * 20% + AVERAGE(B22:B26) * 10% + AVERAGE(B18) * 25% + AVERAGE(B19) * 35% + B20 * 5%</f>
-        <v>13</v>
+        <v>90.54</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4">
         <f> AVERAGE(D3:D7) * 8% + AVERAGE(D9:D12) * 16% + AVERAGE(D21:D28) * 5% + AVERAGE(D14:D17) * 6% + D18 * 25% + D19 * 45%</f>
-        <v>2.0448125</v>
+        <v>85.0698125</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6">
         <f> AVERAGE(F3:F7) * 15% + AVERAGE(F13:F18) * 30% + F8 * 25% + F9 * 25% + F10 * 5% + F11 * 5%</f>
-        <v>17.85</v>
+        <v>86.7</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="8">
         <f> AVERAGE(H3:H6) * 25% + AVERAGE(H8:H11) * 20% + H14 * 25% + H15 * 25% + H12 * 5% + H13 * 5%</f>
-        <v>0</v>
+        <v>85.05</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>4</v>
@@ -766,7 +766,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="14"/>
       <c r="O1" s="15">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -830,21 +830,21 @@
       </c>
       <c r="D3" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E3" s="22">
         <v>1.0</v>
       </c>
       <c r="F3" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G3" s="22">
         <v>1.0</v>
       </c>
       <c r="H3" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -878,21 +878,21 @@
       </c>
       <c r="D4" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E4" s="22">
         <v>2.0</v>
       </c>
       <c r="F4" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G4" s="22">
         <v>2.0</v>
       </c>
       <c r="H4" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -926,21 +926,21 @@
       </c>
       <c r="D5" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E5" s="22">
         <v>3.0</v>
       </c>
       <c r="F5" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G5" s="22">
         <v>3.0</v>
       </c>
       <c r="H5" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -974,21 +974,21 @@
       </c>
       <c r="D6" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E6" s="22">
         <v>4.0</v>
       </c>
       <c r="F6" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G6" s="22">
         <v>4.0</v>
       </c>
       <c r="H6" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1014,23 +1014,22 @@
       <c r="A7" s="20">
         <v>5.0</v>
       </c>
-      <c r="B7" s="20">
-        <f>O1</f>
-        <v>0</v>
+      <c r="B7" s="21">
+        <v>100.0</v>
       </c>
       <c r="C7" s="22">
         <v>5.0</v>
       </c>
       <c r="D7" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E7" s="22">
         <v>5.0</v>
       </c>
       <c r="F7" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>10</v>
@@ -1062,7 +1061,7 @@
       </c>
       <c r="B8" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>11</v>
@@ -1073,14 +1072,14 @@
       </c>
       <c r="F8" s="27">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G8" s="22">
         <v>1.0</v>
       </c>
       <c r="H8" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -1108,28 +1107,28 @@
       </c>
       <c r="B9" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C9" s="22">
         <v>1.0</v>
       </c>
       <c r="D9" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="29">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G9" s="22">
         <v>2.0</v>
       </c>
       <c r="H9" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -1157,28 +1156,28 @@
       </c>
       <c r="B10" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C10" s="22">
         <v>2.0</v>
       </c>
       <c r="D10" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="31">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G10" s="22">
         <v>3.0</v>
       </c>
       <c r="H10" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -1206,28 +1205,28 @@
       </c>
       <c r="B11" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C11" s="20">
         <v>3.0</v>
       </c>
       <c r="D11" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="32">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G11" s="22">
         <v>4.0</v>
       </c>
       <c r="H11" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1255,14 +1254,14 @@
       </c>
       <c r="B12" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C12" s="20">
         <v>4.0</v>
       </c>
       <c r="D12" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>16</v>
@@ -1273,7 +1272,7 @@
       </c>
       <c r="H12" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -1315,7 +1314,7 @@
       </c>
       <c r="H13" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -1349,7 +1348,7 @@
       </c>
       <c r="D14" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E14" s="22">
         <v>2.0</v>
@@ -1362,7 +1361,7 @@
       </c>
       <c r="H14" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -1388,16 +1387,15 @@
       <c r="A15" s="20">
         <v>2.0</v>
       </c>
-      <c r="B15" s="20">
-        <f>O1</f>
-        <v>0</v>
+      <c r="B15" s="21">
+        <v>94.0</v>
       </c>
       <c r="C15" s="22">
         <v>2.0</v>
       </c>
       <c r="D15" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E15" s="22">
         <v>3.0</v>
@@ -1410,7 +1408,7 @@
       </c>
       <c r="H15" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -1438,14 +1436,14 @@
       </c>
       <c r="B16" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C16" s="22">
         <v>3.0</v>
       </c>
       <c r="D16" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E16" s="22">
         <v>4.0</v>
@@ -1481,21 +1479,21 @@
       </c>
       <c r="B17" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C17" s="22">
         <v>4.0</v>
       </c>
       <c r="D17" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E17" s="22">
         <v>5.0</v>
       </c>
       <c r="F17" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1525,21 +1523,21 @@
       </c>
       <c r="B18" s="40">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="42">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E18" s="22">
         <v>6.0</v>
       </c>
       <c r="F18" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1569,14 +1567,14 @@
       </c>
       <c r="B19" s="43">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="45">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -1608,7 +1606,7 @@
       </c>
       <c r="B20" s="43">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>23</v>
@@ -1679,7 +1677,7 @@
       </c>
       <c r="B22" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C22" s="22">
         <v>2.0</v>
@@ -1717,7 +1715,7 @@
       </c>
       <c r="B23" s="20">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C23" s="22">
         <v>3.0</v>
@@ -1798,7 +1796,7 @@
       </c>
       <c r="D25" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -1828,16 +1826,15 @@
       <c r="A26" s="20">
         <v>5.0</v>
       </c>
-      <c r="B26" s="20">
-        <f>O1</f>
-        <v>0</v>
+      <c r="B26" s="21">
+        <v>190.0</v>
       </c>
       <c r="C26" s="22">
         <v>6.0</v>
       </c>
       <c r="D26" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -1869,14 +1866,14 @@
       </c>
       <c r="B27" s="48">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C27" s="22">
         <v>7.0</v>
       </c>
       <c r="D27" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -1908,14 +1905,14 @@
       </c>
       <c r="B28" s="48">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C28" s="22">
         <v>8.0</v>
       </c>
       <c r="D28" s="23">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -1947,7 +1944,7 @@
       </c>
       <c r="B29" s="48">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1981,7 +1978,7 @@
       </c>
       <c r="B30" s="48">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2015,7 +2012,7 @@
       </c>
       <c r="B31" s="48">
         <f>O1</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>

--- a/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
+++ b/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
@@ -433,6 +433,9 @@
     <xf borderId="6" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="5" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,9 +462,6 @@
     </xf>
     <xf borderId="7" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,28 +732,28 @@
       </c>
       <c r="B1" s="2">
         <f>AVERAGE(B3:B12) * 10% + AVERAGE(B14:B17) * 20% + AVERAGE(B22:B26) * 10% + AVERAGE(B18) * 25% + AVERAGE(B19) * 35% + B20 * 5%</f>
-        <v>90.54</v>
+        <v>93.9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4">
         <f> AVERAGE(D3:D7) * 8% + AVERAGE(D9:D12) * 16% + AVERAGE(D21:D28) * 5% + AVERAGE(D14:D17) * 6% + D18 * 25% + D19 * 45%</f>
-        <v>85.0698125</v>
+        <v>89.1698125</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6">
         <f> AVERAGE(F3:F7) * 15% + AVERAGE(F13:F18) * 30% + F8 * 25% + F9 * 25% + F10 * 5% + F11 * 5%</f>
-        <v>86.7</v>
+        <v>90.1</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="8">
         <f> AVERAGE(H3:H6) * 25% + AVERAGE(H8:H11) * 20% + H14 * 25% + H15 * 25% + H12 * 5% + H13 * 5%</f>
-        <v>85.05</v>
+        <v>85.25</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>4</v>
@@ -766,7 +766,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="14"/>
       <c r="O1" s="15">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -830,21 +830,21 @@
       </c>
       <c r="D3" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E3" s="22">
         <v>1.0</v>
       </c>
       <c r="F3" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G3" s="22">
         <v>1.0</v>
       </c>
       <c r="H3" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -878,21 +878,21 @@
       </c>
       <c r="D4" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E4" s="22">
         <v>2.0</v>
       </c>
       <c r="F4" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G4" s="22">
         <v>2.0</v>
       </c>
       <c r="H4" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -926,21 +926,21 @@
       </c>
       <c r="D5" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E5" s="22">
         <v>3.0</v>
       </c>
       <c r="F5" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G5" s="22">
         <v>3.0</v>
       </c>
       <c r="H5" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -974,21 +974,21 @@
       </c>
       <c r="D6" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E6" s="22">
         <v>4.0</v>
       </c>
       <c r="F6" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G6" s="22">
         <v>4.0</v>
       </c>
       <c r="H6" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1022,14 +1022,14 @@
       </c>
       <c r="D7" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E7" s="22">
         <v>5.0</v>
       </c>
       <c r="F7" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>10</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B8" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>11</v>
@@ -1072,14 +1072,13 @@
       </c>
       <c r="F8" s="27">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G8" s="22">
         <v>1.0</v>
       </c>
-      <c r="H8" s="23">
-        <f>O1</f>
-        <v>81</v>
+      <c r="H8" s="28">
+        <v>90.0</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -1107,28 +1106,28 @@
       </c>
       <c r="B9" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C9" s="22">
         <v>1.0</v>
       </c>
       <c r="D9" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="30">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G9" s="22">
         <v>2.0</v>
       </c>
       <c r="H9" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -1156,28 +1155,27 @@
       </c>
       <c r="B10" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C10" s="22">
         <v>2.0</v>
       </c>
       <c r="D10" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="32">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G10" s="22">
         <v>3.0</v>
       </c>
-      <c r="H10" s="23">
-        <f>O1</f>
-        <v>81</v>
+      <c r="H10" s="28">
+        <v>0.0</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -1205,28 +1203,28 @@
       </c>
       <c r="B11" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C11" s="20">
         <v>3.0</v>
       </c>
       <c r="D11" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="33">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G11" s="22">
         <v>4.0</v>
       </c>
       <c r="H11" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1254,25 +1252,25 @@
       </c>
       <c r="B12" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C12" s="20">
         <v>4.0</v>
       </c>
       <c r="D12" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="35" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -1295,18 +1293,18 @@
       <c r="AA12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="22">
         <v>1.0</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="28">
         <v>86.0</v>
       </c>
       <c r="G13" s="38" t="s">
@@ -1314,7 +1312,7 @@
       </c>
       <c r="H13" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -1348,12 +1346,12 @@
       </c>
       <c r="D14" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E14" s="22">
         <v>2.0</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="28">
         <v>94.0</v>
       </c>
       <c r="G14" s="38" t="s">
@@ -1361,7 +1359,7 @@
       </c>
       <c r="H14" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -1395,12 +1393,12 @@
       </c>
       <c r="D15" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E15" s="22">
         <v>3.0</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="28">
         <v>98.0</v>
       </c>
       <c r="G15" s="39" t="s">
@@ -1408,7 +1406,7 @@
       </c>
       <c r="H15" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -1436,19 +1434,19 @@
       </c>
       <c r="B16" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C16" s="22">
         <v>3.0</v>
       </c>
       <c r="D16" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E16" s="22">
         <v>4.0</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="28">
         <v>79.0</v>
       </c>
       <c r="G16" s="11"/>
@@ -1479,21 +1477,21 @@
       </c>
       <c r="B17" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C17" s="22">
         <v>4.0</v>
       </c>
       <c r="D17" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E17" s="22">
         <v>5.0</v>
       </c>
       <c r="F17" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1523,21 +1521,21 @@
       </c>
       <c r="B18" s="40">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="42">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E18" s="22">
         <v>6.0</v>
       </c>
       <c r="F18" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1567,14 +1565,14 @@
       </c>
       <c r="B19" s="43">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="45">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -1606,7 +1604,7 @@
       </c>
       <c r="B20" s="43">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>23</v>
@@ -1644,7 +1642,7 @@
       <c r="C21" s="22">
         <v>1.0</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="28">
         <v>84.17</v>
       </c>
       <c r="E21" s="11"/>
@@ -1677,12 +1675,12 @@
       </c>
       <c r="B22" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C22" s="22">
         <v>2.0</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="28">
         <v>91.0</v>
       </c>
       <c r="E22" s="11"/>
@@ -1715,12 +1713,12 @@
       </c>
       <c r="B23" s="20">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C23" s="22">
         <v>3.0</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="28">
         <v>71.0</v>
       </c>
       <c r="E23" s="11"/>
@@ -1757,7 +1755,7 @@
       <c r="C24" s="22">
         <v>4.0</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="28">
         <v>81.0</v>
       </c>
       <c r="E24" s="11"/>
@@ -1796,7 +1794,7 @@
       </c>
       <c r="D25" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -1834,7 +1832,7 @@
       </c>
       <c r="D26" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -1866,14 +1864,14 @@
       </c>
       <c r="B27" s="48">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C27" s="22">
         <v>7.0</v>
       </c>
       <c r="D27" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -1905,14 +1903,14 @@
       </c>
       <c r="B28" s="48">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C28" s="22">
         <v>8.0</v>
       </c>
       <c r="D28" s="23">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -1944,7 +1942,7 @@
       </c>
       <c r="B29" s="48">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1978,7 +1976,7 @@
       </c>
       <c r="B30" s="48">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2012,7 +2010,7 @@
       </c>
       <c r="B31" s="48">
         <f>O1</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>

--- a/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
+++ b/Semester 2 (Sipaling Sibuk Tuh, Masokis!)/Rekap Nilai Upi Semester 2.xlsx
@@ -735,14 +735,14 @@
       </c>
       <c r="B1" s="2">
         <f>AVERAGE(B3:B12) * 10% + AVERAGE(B14:B17) * 20% + AVERAGE(B22:B26) * 10% + AVERAGE(B18) * 25% + AVERAGE(B19) * 35% + B20 * 5%</f>
-        <v>94.05</v>
+        <v>94.12</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4">
         <f> AVERAGE(D3:D7) * 8% + AVERAGE(D9:D12) * 16% + AVERAGE(D21:D28) * 5% + AVERAGE(D14:D17) * 6% + D18 * 25% + D19 * 45%</f>
-        <v>85.4198125</v>
+        <v>85.3885625</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -1106,9 +1106,8 @@
       <c r="A9" s="20">
         <v>7.0</v>
       </c>
-      <c r="B9" s="20">
-        <f>O1</f>
-        <v>85</v>
+      <c r="B9" s="21">
+        <v>92.0</v>
       </c>
       <c r="C9" s="22">
         <v>1.0</v>
@@ -1831,9 +1830,8 @@
       <c r="C26" s="22">
         <v>6.0</v>
       </c>
-      <c r="D26" s="23">
-        <f>O1</f>
-        <v>85</v>
+      <c r="D26" s="28">
+        <v>80.0</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
